--- a/data/trans_orig/P14B34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Habitat-trans_orig.xlsx
@@ -1117,19 +1117,19 @@
         <v>6989</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2945</v>
+        <v>2744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13911</v>
+        <v>13785</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009934644007441063</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004186285234900842</v>
+        <v>0.003900797638379308</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01977450534695956</v>
+        <v>0.01959516737681939</v>
       </c>
     </row>
     <row r="5">
@@ -1146,19 +1146,19 @@
         <v>696480</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>689558</v>
+        <v>689684</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>700524</v>
+        <v>700725</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.990065355992559</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9802254946530402</v>
+        <v>0.9804048326231801</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9958137147650992</v>
+        <v>0.9960992023616206</v>
       </c>
     </row>
     <row r="6">
@@ -1208,19 +1208,19 @@
         <v>18324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10675</v>
+        <v>10793</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27878</v>
+        <v>28847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01803997562426716</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01050914234734497</v>
+        <v>0.01062590921787404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02744582662961872</v>
+        <v>0.02839957639404051</v>
       </c>
     </row>
     <row r="8">
@@ -1237,19 +1237,19 @@
         <v>997432</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>987878</v>
+        <v>986909</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1005081</v>
+        <v>1004963</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9819600243757328</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9725541733703813</v>
+        <v>0.9716004236059596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9894908576526551</v>
+        <v>0.989374090782126</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>10491</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5263</v>
+        <v>5212</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20573</v>
+        <v>20066</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01384779981554134</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006947381754395613</v>
+        <v>0.006879240246627213</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02715490031480305</v>
+        <v>0.0264853715567696</v>
       </c>
     </row>
     <row r="11">
@@ -1328,19 +1328,19 @@
         <v>747132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>737050</v>
+        <v>737557</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>752360</v>
+        <v>752411</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9861522001844587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9728450996851972</v>
+        <v>0.9735146284432304</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9930526182456044</v>
+        <v>0.9931207597533728</v>
       </c>
     </row>
     <row r="12">
@@ -1390,19 +1390,19 @@
         <v>21710</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13442</v>
+        <v>13465</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33118</v>
+        <v>34014</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0229325274614933</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01419898417435259</v>
+        <v>0.01422361774900769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03498300727196904</v>
+        <v>0.03592968898240023</v>
       </c>
     </row>
     <row r="14">
@@ -1419,19 +1419,19 @@
         <v>924979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>913571</v>
+        <v>912675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>933247</v>
+        <v>933224</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9770674725385067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9650169927280309</v>
+        <v>0.9640703110175998</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9858010158256468</v>
+        <v>0.9857763822509922</v>
       </c>
     </row>
     <row r="15">
@@ -1481,19 +1481,19 @@
         <v>57514</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44541</v>
+        <v>43511</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74340</v>
+        <v>77055</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01679967474789959</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01301033410330223</v>
+        <v>0.01270930758254853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02171424533858039</v>
+        <v>0.02250756487543995</v>
       </c>
     </row>
     <row r="17">
@@ -1510,19 +1510,19 @@
         <v>3366023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3349197</v>
+        <v>3346482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3378996</v>
+        <v>3380026</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9832003252521004</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9782857546614196</v>
+        <v>0.9774924351245605</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9869896658966978</v>
+        <v>0.9872906924174516</v>
       </c>
     </row>
     <row r="18">
@@ -1690,19 +1690,19 @@
         <v>6859</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2639</v>
+        <v>2657</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13762</v>
+        <v>14202</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01016434843953715</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003911264801118258</v>
+        <v>0.003938195996125961</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02039474184834336</v>
+        <v>0.02104571664793259</v>
       </c>
     </row>
     <row r="5">
@@ -1719,19 +1719,19 @@
         <v>667941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>661038</v>
+        <v>660598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>672161</v>
+        <v>672143</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9898356515604628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9796052581516568</v>
+        <v>0.9789542833520679</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9960887351988817</v>
+        <v>0.9960618040038741</v>
       </c>
     </row>
     <row r="6">
@@ -1781,19 +1781,19 @@
         <v>10021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5276</v>
+        <v>5556</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17509</v>
+        <v>18781</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00980112811125927</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005160575594607924</v>
+        <v>0.005434495233675589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01712491327435981</v>
+        <v>0.01836874696480268</v>
       </c>
     </row>
     <row r="8">
@@ -1810,19 +1810,19 @@
         <v>1012410</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1004922</v>
+        <v>1003650</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1017155</v>
+        <v>1016875</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9901988718887408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9828750867256401</v>
+        <v>0.9816312530351959</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.994839424405392</v>
+        <v>0.9945655047663242</v>
       </c>
     </row>
     <row r="9">
@@ -1872,19 +1872,19 @@
         <v>10087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4732</v>
+        <v>4860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19106</v>
+        <v>19030</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01327968370050763</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006230597797291518</v>
+        <v>0.006398644148898365</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0251547054175107</v>
+        <v>0.02505470092136029</v>
       </c>
     </row>
     <row r="11">
@@ -1901,19 +1901,19 @@
         <v>749465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>740446</v>
+        <v>740522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754820</v>
+        <v>754692</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9867203162994924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9748452945824893</v>
+        <v>0.9749452990786396</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9937694022027083</v>
+        <v>0.9936013558511014</v>
       </c>
     </row>
     <row r="12">
@@ -1963,19 +1963,19 @@
         <v>10767</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5209</v>
+        <v>5828</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18504</v>
+        <v>19155</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0114841573111333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0055560292601091</v>
+        <v>0.006216096796296998</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01973624747183868</v>
+        <v>0.02043027568704713</v>
       </c>
     </row>
     <row r="14">
@@ -1992,19 +1992,19 @@
         <v>926800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>919063</v>
+        <v>918412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>932358</v>
+        <v>931739</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9885158426888667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9802637525281614</v>
+        <v>0.9795697243129531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9944439707398911</v>
+        <v>0.993783903203703</v>
       </c>
     </row>
     <row r="15">
@@ -2054,19 +2054,19 @@
         <v>37734</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27008</v>
+        <v>27576</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51063</v>
+        <v>50949</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01111660776788449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00795663170362374</v>
+        <v>0.008124139005835728</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01504343890446197</v>
+        <v>0.01500994374347743</v>
       </c>
     </row>
     <row r="17">
@@ -2083,19 +2083,19 @@
         <v>3356616</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3343287</v>
+        <v>3343401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3367342</v>
+        <v>3366774</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9888833922321155</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9849565610955381</v>
+        <v>0.9849900562565225</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9920433682963763</v>
+        <v>0.9918758609941642</v>
       </c>
     </row>
     <row r="18">
@@ -2263,19 +2263,19 @@
         <v>12855</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8084</v>
+        <v>8294</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19015</v>
+        <v>18500</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01864810814264643</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01172688281302193</v>
+        <v>0.01203149263172871</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02758414228251048</v>
+        <v>0.02683816129731428</v>
       </c>
     </row>
     <row r="5">
@@ -2292,19 +2292,19 @@
         <v>676478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>670318</v>
+        <v>670833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>681249</v>
+        <v>681039</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9813518918573534</v>
+        <v>0.9813518918573536</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9724158577174894</v>
+        <v>0.9731618387026859</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9882731171869779</v>
+        <v>0.9879685073682712</v>
       </c>
     </row>
     <row r="6">
@@ -2354,19 +2354,19 @@
         <v>10724</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6087</v>
+        <v>6371</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17041</v>
+        <v>16942</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01026944915644642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005829383254289904</v>
+        <v>0.00610100833329255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01631880380665942</v>
+        <v>0.01622367447620208</v>
       </c>
     </row>
     <row r="8">
@@ -2383,19 +2383,19 @@
         <v>1033538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1027221</v>
+        <v>1027320</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1038175</v>
+        <v>1037891</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9897305508435537</v>
+        <v>0.9897305508435535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9836811961933406</v>
+        <v>0.983776325523798</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9941706167457096</v>
+        <v>0.9938989916667075</v>
       </c>
     </row>
     <row r="9">
@@ -2445,19 +2445,19 @@
         <v>7045</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3182</v>
+        <v>3206</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13548</v>
+        <v>14164</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008859517963143278</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004001895342981018</v>
+        <v>0.004031645450664576</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01703685119787384</v>
+        <v>0.01781081813712688</v>
       </c>
     </row>
     <row r="11">
@@ -2474,19 +2474,19 @@
         <v>788196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>781693</v>
+        <v>781077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>792059</v>
+        <v>792035</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9911404820368569</v>
+        <v>0.9911404820368568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9829631488021262</v>
+        <v>0.9821891818628731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959981046570191</v>
+        <v>0.9959683545493355</v>
       </c>
     </row>
     <row r="12">
@@ -2536,19 +2536,19 @@
         <v>5300</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2134</v>
+        <v>2302</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11409</v>
+        <v>11414</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.005393656537145947</v>
+        <v>0.005393656537145948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002171519453263526</v>
+        <v>0.002343284659319068</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01161148423248454</v>
+        <v>0.01161637759888729</v>
       </c>
     </row>
     <row r="14">
@@ -2565,19 +2565,19 @@
         <v>977256</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>971147</v>
+        <v>971142</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>980422</v>
+        <v>980254</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9946063434628539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9883885157675157</v>
+        <v>0.988383622401113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9978284805467369</v>
+        <v>0.9976567153406813</v>
       </c>
     </row>
     <row r="15">
@@ -2627,19 +2627,19 @@
         <v>35924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26179</v>
+        <v>25931</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47136</v>
+        <v>47006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01023063545159232</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007455330612547365</v>
+        <v>0.007384729388097846</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01342369776924862</v>
+        <v>0.01338683341780855</v>
       </c>
     </row>
     <row r="17">
@@ -2656,19 +2656,19 @@
         <v>3475468</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3464256</v>
+        <v>3464386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3485213</v>
+        <v>3485461</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9897693645484076</v>
+        <v>0.9897693645484077</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9865763022307515</v>
+        <v>0.9866131665821913</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9925446693874527</v>
+        <v>0.992615270611902</v>
       </c>
     </row>
     <row r="18">
